--- a/data/158/MOF/TRADE/COUN/World.xlsx
+++ b/data/158/MOF/TRADE/COUN/World.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -345,14 +358,5710 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:SX3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1979/01</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1979/02</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1979/03</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1979/04</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1979/05</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1979/06</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1979/07</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1979/08</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1979/09</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1979/10</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1979/11</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1979/12</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1980/01</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1980/02</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1980/03</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1980/04</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1980/05</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1980/06</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1980/07</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1980/08</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1980/09</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1980/10</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1980/11</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1980/12</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1981/01</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1981/02</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1981/03</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1981/04</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1981/05</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1981/06</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1981/07</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1981/08</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1981/09</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1981/10</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1981/11</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1981/12</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1982/01</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1982/02</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1982/03</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1982/04</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1982/05</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1982/06</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1982/07</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1982/08</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1982/09</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1982/10</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1982/11</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1982/12</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1983/01</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1983/02</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1983/03</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1983/04</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1983/05</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1983/06</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1983/07</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1983/08</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1983/09</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1983/10</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1983/11</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1983/12</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1984/01</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1984/02</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1984/03</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1984/04</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1984/05</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1984/06</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1984/07</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1984/08</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1984/09</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1984/10</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1984/11</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1984/12</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>1985/01</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>1985/02</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>1985/03</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>1985/04</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>1985/05</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>1985/06</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>1985/07</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>1985/08</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>1985/09</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>1985/10</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>1985/11</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>1985/12</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>1986/01</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>1986/02</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>1986/03</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>1986/04</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>1986/05</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>1986/06</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>1986/07</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>1986/08</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>1986/09</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>1986/10</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>1986/11</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>1986/12</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>1987/01</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>1987/02</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>1987/03</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>1987/04</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>1987/05</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>1987/06</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>1987/07</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>1987/08</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>1987/09</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>1987/10</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>1987/11</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>1987/12</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>1988/01</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>1988/02</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>1988/03</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>1988/04</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>1988/05</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>1988/06</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>1988/07</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>1988/08</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>1988/09</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>1988/10</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>1988/11</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>1988/12</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>1989/01</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>1989/02</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>1989/03</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>1989/04</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>1989/05</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>1989/06</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>1989/07</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>1989/08</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>1989/09</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>1989/10</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>1989/11</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>1989/12</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>1990/01</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>1990/02</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>1990/03</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>1990/04</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>1990/05</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>1990/06</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>1990/07</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>1990/08</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>1990/09</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>1990/10</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>1990/11</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>1990/12</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>1991/01</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>1991/02</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>1991/03</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>1991/04</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>1991/05</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>1991/06</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>1991/07</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>1991/08</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>1991/09</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>1991/10</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>1991/11</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>1991/12</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>1992/01</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>1992/02</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>1992/03</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>1992/04</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>1992/05</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>1992/06</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>1992/07</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>1992/08</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>1992/09</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>1992/10</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>1992/11</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>1992/12</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>1993/01</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>1993/02</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>1993/03</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>1993/04</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>1993/05</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>1993/06</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>1993/07</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>1993/08</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>1993/09</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>1993/10</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>1993/11</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>1993/12</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>1994/01</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>1994/02</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>1994/03</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>1994/04</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>1994/05</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>1994/06</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>1994/07</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>1994/08</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>1994/09</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>1994/10</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>1994/11</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>1994/12</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>1995/01</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>1995/02</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>1995/03</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>1995/04</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>1995/05</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>1995/06</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>1995/07</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>1995/08</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>1995/09</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>1995/10</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>1995/11</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>1995/12</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>1996/01</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>1996/02</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>1996/03</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>1996/04</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>1996/05</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>1996/06</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>1996/07</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>1996/08</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>1996/09</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>1996/10</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>1996/11</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>1996/12</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>1997/01</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>1997/02</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>1997/03</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>1997/04</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>1997/05</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>1997/06</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>1997/07</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>1997/08</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>1997/09</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>1997/10</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>1997/11</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>1997/12</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>1998/01</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>1998/02</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>1998/03</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>1998/04</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>1998/05</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>1998/06</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>1998/07</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>1998/08</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>1998/09</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>1998/10</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>1998/11</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>1998/12</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>1999/01</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>1999/02</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>1999/03</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>1999/04</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>1999/05</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>1999/06</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>1999/07</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>1999/08</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>1999/09</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>1999/10</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>1999/11</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>1999/12</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>2000/01</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>2000/02</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>2000/03</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>2000/04</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>2000/05</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>2000/06</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>2000/07</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>2000/08</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>2000/09</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>2000/10</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>2000/11</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>2000/12</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>2001/01</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>2001/02</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>2001/03</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>2001/04</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>2001/05</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>2001/06</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>2001/07</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>2001/08</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>2001/09</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>2001/10</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>2001/11</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>2001/12</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>2002/01</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>2002/02</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>2002/03</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>2002/04</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>2002/05</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>2002/06</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>2002/07</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>2002/08</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>2002/09</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>2002/10</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>2002/11</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>2002/12</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>2003/01</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>2003/02</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>2003/03</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>2003/04</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>2003/05</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>2003/06</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>2003/07</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>2003/08</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>2003/09</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>2003/10</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>2003/11</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>2003/12</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>2004/01</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>2004/02</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>2004/03</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>2004/04</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>2004/05</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>2004/06</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>2004/07</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>2004/08</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>2004/09</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>2004/10</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>2004/11</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
+          <t>2004/12</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
+        <is>
+          <t>2005/01</t>
+        </is>
+      </c>
+      <c r="LD1" s="1" t="inlineStr">
+        <is>
+          <t>2005/02</t>
+        </is>
+      </c>
+      <c r="LE1" s="1" t="inlineStr">
+        <is>
+          <t>2005/03</t>
+        </is>
+      </c>
+      <c r="LF1" s="1" t="inlineStr">
+        <is>
+          <t>2005/04</t>
+        </is>
+      </c>
+      <c r="LG1" s="1" t="inlineStr">
+        <is>
+          <t>2005/05</t>
+        </is>
+      </c>
+      <c r="LH1" s="1" t="inlineStr">
+        <is>
+          <t>2005/06</t>
+        </is>
+      </c>
+      <c r="LI1" s="1" t="inlineStr">
+        <is>
+          <t>2005/07</t>
+        </is>
+      </c>
+      <c r="LJ1" s="1" t="inlineStr">
+        <is>
+          <t>2005/08</t>
+        </is>
+      </c>
+      <c r="LK1" s="1" t="inlineStr">
+        <is>
+          <t>2005/09</t>
+        </is>
+      </c>
+      <c r="LL1" s="1" t="inlineStr">
+        <is>
+          <t>2005/10</t>
+        </is>
+      </c>
+      <c r="LM1" s="1" t="inlineStr">
+        <is>
+          <t>2005/11</t>
+        </is>
+      </c>
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>2005/12</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
+        <is>
+          <t>2006/01</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>2006/02</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006/03</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>2006/04</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>2006/05</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>2006/06</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>2006/07</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>2006/08</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>2006/09</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>2006/10</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>2006/11</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>2006/12</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>2007/01</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>2007/02</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>2007/03</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>2007/04</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>2007/05</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>2007/06</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>2007/07</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>2007/08</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>2007/09</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>2007/10</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>2007/11</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>2007/12</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>2008/01</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>2008/02</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>2008/03</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>2008/04</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>2008/05</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
+        <is>
+          <t>2008/06</t>
+        </is>
+      </c>
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>2008/07</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>2008/08</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>2008/09</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>2008/10</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>2008/11</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>2008/12</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>2009/01</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>2009/02</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>2009/03</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>2009/04</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>2009/05</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>2009/06</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>2009/07</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>2009/08</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>2009/09</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>2009/10</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>2009/11</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>2009/12</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>2010/01</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>2010/02</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
+        <is>
+          <t>2010/03</t>
+        </is>
+      </c>
+      <c r="NN1" s="1" t="inlineStr">
+        <is>
+          <t>2010/04</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
+        <is>
+          <t>2010/05</t>
+        </is>
+      </c>
+      <c r="NP1" s="1" t="inlineStr">
+        <is>
+          <t>2010/06</t>
+        </is>
+      </c>
+      <c r="NQ1" s="1" t="inlineStr">
+        <is>
+          <t>2010/07</t>
+        </is>
+      </c>
+      <c r="NR1" s="1" t="inlineStr">
+        <is>
+          <t>2010/08</t>
+        </is>
+      </c>
+      <c r="NS1" s="1" t="inlineStr">
+        <is>
+          <t>2010/09</t>
+        </is>
+      </c>
+      <c r="NT1" s="1" t="inlineStr">
+        <is>
+          <t>2010/10</t>
+        </is>
+      </c>
+      <c r="NU1" s="1" t="inlineStr">
+        <is>
+          <t>2010/11</t>
+        </is>
+      </c>
+      <c r="NV1" s="1" t="inlineStr">
+        <is>
+          <t>2010/12</t>
+        </is>
+      </c>
+      <c r="NW1" s="1" t="inlineStr">
+        <is>
+          <t>2011/01</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
+        <is>
+          <t>2011/02</t>
+        </is>
+      </c>
+      <c r="NY1" s="1" t="inlineStr">
+        <is>
+          <t>2011/03</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>2011/04</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
+          <t>2011/05</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
+        <is>
+          <t>2011/06</t>
+        </is>
+      </c>
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>2011/07</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>2011/08</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
+        <is>
+          <t>2011/09</t>
+        </is>
+      </c>
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
+          <t>2011/10</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
+        <is>
+          <t>2011/11</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>2011/12</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>2012/01</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>2012/02</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>2012/03</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
+        <is>
+          <t>2012/04</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
+        <is>
+          <t>2012/05</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>2012/06</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>2012/07</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>2012/08</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>2012/09</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
+          <t>2012/10</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>2012/11</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>2012/12</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>2013/01</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>2013/02</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>2013/03</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>2013/04</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>2013/05</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>2013/06</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>2013/07</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>2013/08</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>2013/09</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>2013/10</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>2013/11</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>2013/12</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>2014/01</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>2014/02</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>2014/03</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014/04</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>2014/05</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>2014/06</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>2014/07</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>2014/08</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>2014/09</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>2014/10</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>2014/11</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>2014/12</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>2015/01</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
+        <is>
+          <t>2015/02</t>
+        </is>
+      </c>
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>2015/03</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>2015/04</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>2015/05</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>2015/06</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>2015/07</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>2015/08</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>2015/09</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>2015/10</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>2015/11</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>2015/12</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>2016/01</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>2016/02</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>2016/03</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>2016/04</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
+          <t>2016/05</t>
+        </is>
+      </c>
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>2016/06</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>2016/07</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
+        <is>
+          <t>2016/08</t>
+        </is>
+      </c>
+      <c r="QM1" s="1" t="inlineStr">
+        <is>
+          <t>2016/09</t>
+        </is>
+      </c>
+      <c r="QN1" s="1" t="inlineStr">
+        <is>
+          <t>2016/10</t>
+        </is>
+      </c>
+      <c r="QO1" s="1" t="inlineStr">
+        <is>
+          <t>2016/11</t>
+        </is>
+      </c>
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>2016/12</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>2017/01</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
+          <t>2017/02</t>
+        </is>
+      </c>
+      <c r="QS1" s="1" t="inlineStr">
+        <is>
+          <t>2017/03</t>
+        </is>
+      </c>
+      <c r="QT1" s="1" t="inlineStr">
+        <is>
+          <t>2017/04</t>
+        </is>
+      </c>
+      <c r="QU1" s="1" t="inlineStr">
+        <is>
+          <t>2017/05</t>
+        </is>
+      </c>
+      <c r="QV1" s="1" t="inlineStr">
+        <is>
+          <t>2017/06</t>
+        </is>
+      </c>
+      <c r="QW1" s="1" t="inlineStr">
+        <is>
+          <t>2017/07</t>
+        </is>
+      </c>
+      <c r="QX1" s="1" t="inlineStr">
+        <is>
+          <t>2017/08</t>
+        </is>
+      </c>
+      <c r="QY1" s="1" t="inlineStr">
+        <is>
+          <t>2017/09</t>
+        </is>
+      </c>
+      <c r="QZ1" s="1" t="inlineStr">
+        <is>
+          <t>2017/10</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
+        <is>
+          <t>2017/11</t>
+        </is>
+      </c>
+      <c r="RB1" s="1" t="inlineStr">
+        <is>
+          <t>2017/12</t>
+        </is>
+      </c>
+      <c r="RC1" s="1" t="inlineStr">
+        <is>
+          <t>2018/01</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
+          <t>2018/02</t>
+        </is>
+      </c>
+      <c r="RE1" s="1" t="inlineStr">
+        <is>
+          <t>2018/03</t>
+        </is>
+      </c>
+      <c r="RF1" s="1" t="inlineStr">
+        <is>
+          <t>2018/04</t>
+        </is>
+      </c>
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>2018/05</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
+          <t>2018/06</t>
+        </is>
+      </c>
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>2018/07</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>2018/08</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
+          <t>2018/09</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>2018/10</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>2018/11</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>2018/12</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
+          <t>2019/01</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>2019/02</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019/03</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
+        <is>
+          <t>2019/04</t>
+        </is>
+      </c>
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>2019/05</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
+          <t>2019/06</t>
+        </is>
+      </c>
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>2019/07</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>2019/08</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>2019/09</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>2019/10</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
+          <t>2019/11</t>
+        </is>
+      </c>
+      <c r="RZ1" s="1" t="inlineStr">
+        <is>
+          <t>2019/12</t>
+        </is>
+      </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>2020/01</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>2020/02</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>2020/03</t>
+        </is>
+      </c>
+      <c r="SD1" s="1" t="inlineStr">
+        <is>
+          <t>2020/04</t>
+        </is>
+      </c>
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
+          <t>2020/05</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>2020/06</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
+          <t>2020/07</t>
+        </is>
+      </c>
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
+          <t>2020/08</t>
+        </is>
+      </c>
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>2020/09</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
+        <is>
+          <t>2020/10</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
+        <is>
+          <t>2020/11</t>
+        </is>
+      </c>
+      <c r="SL1" s="1" t="inlineStr">
+        <is>
+          <t>2020/12</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>2021/01</t>
+        </is>
+      </c>
+      <c r="SN1" s="1" t="inlineStr">
+        <is>
+          <t>2021/02</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>2021/03</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>2021/04</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>2021/05</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>2021/06</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>2021/07</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>2021/08</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>2021/09</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>2021/10</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>2021/11</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>2021/12</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Exp-Total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>1192541404</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1547063623</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1924706473</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1674210856</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1795127553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1906294090</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1935032403</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1796769263</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2054736017</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2005656869</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2049252162</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2650148146</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1656296623</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2303865000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2654692011</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2534739838</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2493538171</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2434691410</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2494998910</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2336083457</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2552830654</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2500763213</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2348824280</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3071148371</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1924829698</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2463851338</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2902529112</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2724555854</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>2748372242</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2856838988</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>3083290251</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>2784280334</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>3028395082</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>3093467662</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2692445296</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>3166128645</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>2283708502</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2704303626</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>3195742140</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>3032135254</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>2750030458</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2862327713</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>3060166486</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2684480947</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>3009790237</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>2974059071</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>2740979399</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>3134777114</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>2134195274</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>2616327639</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>3068920520</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>2912037421</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>2738407179</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>2935410242</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>3029505276</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>2823995709</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>3129731941</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>3032322397</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>2907639368</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>3580775633</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>2384138917</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>3098050444</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>3556941250</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>3251541878</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>3256291685</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>3417768073</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>3535860561</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>3244304955</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>3559646133</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>3679814216</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>3410119351</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>3930816238</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>2794824956</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>3320609123</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>3782761250</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>3782513662</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>3628603287</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>3613987776</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>3758852479</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>3297916779</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>3534090591</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>3560071330</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>3242038345</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>3639389893</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>2583556595</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>2913062394</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>3177078112</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>3173289742</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>2987945773</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>2957283036</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>3075530691</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>2609168170</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>2947637644</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>2952599460</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>2711950593</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>3200611677</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>2362312083</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>2634787086</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>2963278213</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>2863059167</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>2605678477</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>2684611970</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>2942171833</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>2655157654</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>2909789669</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>2985539820</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>2618788807</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>3090016604</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>2187613965</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>2602963105</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>2922510217</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>2825634638</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>2575860023</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>2761695856</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>3039379123</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>2775566970</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>3109455598</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>3094537899</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>2841871801</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>3202093963</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>2436919848</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>2875723988</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>3392125121</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>3067505097</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>2907578772</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>3246795217</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>3319946103</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>3061339138</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>3529216651</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>3286437743</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>3150898465</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>3548048483</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>2698920009</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>3189896457</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>3876411321</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>3444506468</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>3380060080</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>3624006217</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>3625666385</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>3339566914</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>3685930278</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>3572949481</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>3302264729</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>3716761335</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>2951341099</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>3270447564</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>3961490693</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>3315886709</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>3370218632</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>3538799084</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>3692837249</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>3397923866</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>3762273475</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>3748619780</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>3533219736</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>3816835087</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>3021436725</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>3529202937</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>3969328400</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>3627117687</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>3368799562</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>3599633739</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>3706451371</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>3318396801</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>3929782656</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>3760352345</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>3351736387</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>3830042834</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>3012474007</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>3461521719</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>4086569506</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>3528825964</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>2986793554</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>3288531601</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>3487536565</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>2930742070</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>3481724569</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>3319377470</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>3063491754</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>3554859946</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>2906853119</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>3224979018</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>3839527713</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>3438461872</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>2900692807</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>3516450964</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>3431702395</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>3117149441</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>3587752468</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>3427748093</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>3354563966</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>3751670841</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>2718873316</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>3494689171</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>4010591913</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>3467655124</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>2981503555</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>3413587882</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>3257376723</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>3194975552</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>3817619284</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>3560529834</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>3604797728</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>4008695039</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>3027419286</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>3624731544</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>4110540460</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>3644667863</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>3405943420</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>3662995373</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>3826022690</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>3454298031</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>3874539603</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>3962383286</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>3968525041</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>4169244609</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>3541320217</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>3990395939</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>4540249607</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>4426958490</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>4102664493</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>4119575002</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>4281189565</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>3936129775</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>4423516871</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>4645993381</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>4224847644</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>4705150875</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>3859903993</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>4094048440</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>4591211719</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>4346653587</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>4042302154</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>4346411506</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>4561303764</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>4014009880</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>4596562432</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>4381385777</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>3679159642</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>4132051044</v>
+      </c>
+      <c r="II2" t="n">
+        <v>3450558739</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>3593228534</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>4305720229</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>4023570532</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>3561098110</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>4086833418</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>4219760216</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>3736971556</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>4270431731</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>4132708510</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>3889473734</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>4277200932</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>3512721254</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>4136816214</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>4700061682</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>4377801174</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>3851459857</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>4487227124</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>4313204396</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>4204857926</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>4679180275</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>4476240990</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>4283071028</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>4631555840</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>3623926991</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>4197397479</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>4919317571</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>4329641863</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>3815616144</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>4138701218</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>4037119145</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>3829973960</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>4162910770</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>4073627215</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>3889579298</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>3961432657</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>3559469049</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>4021653229</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>4773067920</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>4400810114</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>4152221300</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>4430440263</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>4396515316</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>4068125399</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>4449754036</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>4649559510</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>4639711272</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>4567628327</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>3841450944</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>4324756091</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>4806134773</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>4608993190</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>4301341249</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>4428450197</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>4643177851</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>4329863776</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>4858550901</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>4900483442</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>4547423083</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>4957724675</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>4274217072</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>4767653991</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>5442413651</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>5106308596</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>4729667988</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>5289194812</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>5307465560</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>4785482153</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>5445803712</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>5472011536</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>5155195150</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>5394564873</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>4411409724</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>4846300703</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>5776009924</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>5504325510</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>4795218354</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>5478184130</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>5536780403</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>5219992808</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>5927109293</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>5910577029</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>5913569829</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>6337066450</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>5003670510</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>5849493549</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>6814169239</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>6128869787</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>5703411640</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>6270737656</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>6320652373</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>6140483896</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>6828440999</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>6597470698</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>6629634482</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>6959138563</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>5952671779</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>6416106967</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>7512966598</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>6633504327</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>6567848343</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>7286038674</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>7063106295</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>7034674469</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>7255475808</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>7506492548</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>7268584026</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>7433967778</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>6408322709</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>6973674679</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>7681691634</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>6889454205</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>6806770184</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>7152136890</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>7624498933</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>7051439164</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>7361301985</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>6914810591</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>5323503329</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>4830483304</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>3477825156</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>3529575459</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>4183794290</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>4194707904</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>4019951604</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>4594409653</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>4843000548</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>4509804115</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>5109385524</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>5308318725</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>4988162904</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>5411678206</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>4900888348</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>5127147354</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>6000424097</v>
+      </c>
+      <c r="NN2" t="n">
+        <v>5889744011</v>
+      </c>
+      <c r="NO2" t="n">
+        <v>5308604342</v>
+      </c>
+      <c r="NP2" t="n">
+        <v>5867219926</v>
+      </c>
+      <c r="NQ2" t="n">
+        <v>5981905101</v>
+      </c>
+      <c r="NR2" t="n">
+        <v>5209756988</v>
+      </c>
+      <c r="NS2" t="n">
+        <v>5839634979</v>
+      </c>
+      <c r="NT2" t="n">
+        <v>5722496396</v>
+      </c>
+      <c r="NU2" t="n">
+        <v>5439804284</v>
+      </c>
+      <c r="NV2" t="n">
+        <v>6112000870</v>
+      </c>
+      <c r="NW2" t="n">
+        <v>4970132453</v>
+      </c>
+      <c r="NX2" t="n">
+        <v>5589021184</v>
+      </c>
+      <c r="NY2" t="n">
+        <v>5858517149</v>
+      </c>
+      <c r="NZ2" t="n">
+        <v>5156647982</v>
+      </c>
+      <c r="OA2" t="n">
+        <v>4759297307</v>
+      </c>
+      <c r="OB2" t="n">
+        <v>5774613169</v>
+      </c>
+      <c r="OC2" t="n">
+        <v>5781762864</v>
+      </c>
+      <c r="OD2" t="n">
+        <v>5355680930</v>
+      </c>
+      <c r="OE2" t="n">
+        <v>5973818770</v>
+      </c>
+      <c r="OF2" t="n">
+        <v>5506927685</v>
+      </c>
+      <c r="OG2" t="n">
+        <v>5196173431</v>
+      </c>
+      <c r="OH2" t="n">
+        <v>5623882024</v>
+      </c>
+      <c r="OI2" t="n">
+        <v>4513664053</v>
+      </c>
+      <c r="OJ2" t="n">
+        <v>5442624486</v>
+      </c>
+      <c r="OK2" t="n">
+        <v>6203393875</v>
+      </c>
+      <c r="OL2" t="n">
+        <v>5564898273</v>
+      </c>
+      <c r="OM2" t="n">
+        <v>5236857826</v>
+      </c>
+      <c r="ON2" t="n">
+        <v>5641846688</v>
+      </c>
+      <c r="OO2" t="n">
+        <v>5312210774</v>
+      </c>
+      <c r="OP2" t="n">
+        <v>5044405366</v>
+      </c>
+      <c r="OQ2" t="n">
+        <v>5357933278</v>
+      </c>
+      <c r="OR2" t="n">
+        <v>5148010964</v>
+      </c>
+      <c r="OS2" t="n">
+        <v>4983179710</v>
+      </c>
+      <c r="OT2" t="n">
+        <v>5298546922</v>
+      </c>
+      <c r="OU2" t="n">
+        <v>4798572969</v>
+      </c>
+      <c r="OV2" t="n">
+        <v>5283269206</v>
+      </c>
+      <c r="OW2" t="n">
+        <v>6270249121</v>
+      </c>
+      <c r="OX2" t="n">
+        <v>5775769697</v>
+      </c>
+      <c r="OY2" t="n">
+        <v>5765204286</v>
+      </c>
+      <c r="OZ2" t="n">
+        <v>6058610664</v>
+      </c>
+      <c r="PA2" t="n">
+        <v>5958497443</v>
+      </c>
+      <c r="PB2" t="n">
+        <v>5782109839</v>
+      </c>
+      <c r="PC2" t="n">
+        <v>5970950368</v>
+      </c>
+      <c r="PD2" t="n">
+        <v>6102969356</v>
+      </c>
+      <c r="PE2" t="n">
+        <v>5898811957</v>
+      </c>
+      <c r="PF2" t="n">
+        <v>6109178044</v>
+      </c>
+      <c r="PG2" t="n">
+        <v>5251917032</v>
+      </c>
+      <c r="PH2" t="n">
+        <v>5799170057</v>
+      </c>
+      <c r="PI2" t="n">
+        <v>6383275508</v>
+      </c>
+      <c r="PJ2" t="n">
+        <v>6067182159</v>
+      </c>
+      <c r="PK2" t="n">
+        <v>5606008757</v>
+      </c>
+      <c r="PL2" t="n">
+        <v>5940015772</v>
+      </c>
+      <c r="PM2" t="n">
+        <v>6191917647</v>
+      </c>
+      <c r="PN2" t="n">
+        <v>5704817472</v>
+      </c>
+      <c r="PO2" t="n">
+        <v>6382087103</v>
+      </c>
+      <c r="PP2" t="n">
+        <v>6687313504</v>
+      </c>
+      <c r="PQ2" t="n">
+        <v>6187518807</v>
+      </c>
+      <c r="PR2" t="n">
+        <v>6891804493</v>
+      </c>
+      <c r="PS2" t="n">
+        <v>6140891682</v>
+      </c>
+      <c r="PT2" t="n">
+        <v>5940749046</v>
+      </c>
+      <c r="PU2" t="n">
+        <v>6926741388</v>
+      </c>
+      <c r="PV2" t="n">
+        <v>6548769906</v>
+      </c>
+      <c r="PW2" t="n">
+        <v>5737870695</v>
+      </c>
+      <c r="PX2" t="n">
+        <v>6504696538</v>
+      </c>
+      <c r="PY2" t="n">
+        <v>6662871116</v>
+      </c>
+      <c r="PZ2" t="n">
+        <v>5880185443</v>
+      </c>
+      <c r="QA2" t="n">
+        <v>6413303277</v>
+      </c>
+      <c r="QB2" t="n">
+        <v>6541289708</v>
+      </c>
+      <c r="QC2" t="n">
+        <v>5978713942</v>
+      </c>
+      <c r="QD2" t="n">
+        <v>6337846121</v>
+      </c>
+      <c r="QE2" t="n">
+        <v>5350536491</v>
+      </c>
+      <c r="QF2" t="n">
+        <v>5702255866</v>
+      </c>
+      <c r="QG2" t="n">
+        <v>6456793157</v>
+      </c>
+      <c r="QH2" t="n">
+        <v>5889551488</v>
+      </c>
+      <c r="QI2" t="n">
+        <v>5091944315</v>
+      </c>
+      <c r="QJ2" t="n">
+        <v>6025343551</v>
+      </c>
+      <c r="QK2" t="n">
+        <v>5728432781</v>
+      </c>
+      <c r="QL2" t="n">
+        <v>5316393212</v>
+      </c>
+      <c r="QM2" t="n">
+        <v>5968949205</v>
+      </c>
+      <c r="QN2" t="n">
+        <v>5870245657</v>
+      </c>
+      <c r="QO2" t="n">
+        <v>5956403435</v>
+      </c>
+      <c r="QP2" t="n">
+        <v>6678921225</v>
+      </c>
+      <c r="QQ2" t="n">
+        <v>5420942231</v>
+      </c>
+      <c r="QR2" t="n">
+        <v>6347122559</v>
+      </c>
+      <c r="QS2" t="n">
+        <v>7227998277</v>
+      </c>
+      <c r="QT2" t="n">
+        <v>6330189902</v>
+      </c>
+      <c r="QU2" t="n">
+        <v>5851616236</v>
+      </c>
+      <c r="QV2" t="n">
+        <v>6607970983</v>
+      </c>
+      <c r="QW2" t="n">
+        <v>6494640256</v>
+      </c>
+      <c r="QX2" t="n">
+        <v>6278485972</v>
+      </c>
+      <c r="QY2" t="n">
+        <v>6810697106</v>
+      </c>
+      <c r="QZ2" t="n">
+        <v>6692904349</v>
+      </c>
+      <c r="RA2" t="n">
+        <v>6920011796</v>
+      </c>
+      <c r="RB2" t="n">
+        <v>7303877381</v>
+      </c>
+      <c r="RC2" t="n">
+        <v>6085961928</v>
+      </c>
+      <c r="RD2" t="n">
+        <v>6462796270</v>
+      </c>
+      <c r="RE2" t="n">
+        <v>7382097114</v>
+      </c>
+      <c r="RF2" t="n">
+        <v>6822277991</v>
+      </c>
+      <c r="RG2" t="n">
+        <v>6326873106</v>
+      </c>
+      <c r="RH2" t="n">
+        <v>7053834838</v>
+      </c>
+      <c r="RI2" t="n">
+        <v>6747929534</v>
+      </c>
+      <c r="RJ2" t="n">
+        <v>6687800164</v>
+      </c>
+      <c r="RK2" t="n">
+        <v>6716828606</v>
+      </c>
+      <c r="RL2" t="n">
+        <v>7243462777</v>
+      </c>
+      <c r="RM2" t="n">
+        <v>6927096583</v>
+      </c>
+      <c r="RN2" t="n">
+        <v>7021793763</v>
+      </c>
+      <c r="RO2" t="n">
+        <v>5574422796</v>
+      </c>
+      <c r="RP2" t="n">
+        <v>6385419289</v>
+      </c>
+      <c r="RQ2" t="n">
+        <v>7202147128</v>
+      </c>
+      <c r="RR2" t="n">
+        <v>6664294468</v>
+      </c>
+      <c r="RS2" t="n">
+        <v>5837841427</v>
+      </c>
+      <c r="RT2" t="n">
+        <v>6585086798</v>
+      </c>
+      <c r="RU2" t="n">
+        <v>6643459913</v>
+      </c>
+      <c r="RV2" t="n">
+        <v>6138719941</v>
+      </c>
+      <c r="RW2" t="n">
+        <v>6368995881</v>
+      </c>
+      <c r="RX2" t="n">
+        <v>6576171779</v>
+      </c>
+      <c r="RY2" t="n">
+        <v>6379008038</v>
+      </c>
+      <c r="RZ2" t="n">
+        <v>6576097457</v>
+      </c>
+      <c r="SA2" t="n">
+        <v>5432348012</v>
+      </c>
+      <c r="SB2" t="n">
+        <v>6319700664</v>
+      </c>
+      <c r="SC2" t="n">
+        <v>6357067568</v>
+      </c>
+      <c r="SD2" t="n">
+        <v>5204911275</v>
+      </c>
+      <c r="SE2" t="n">
+        <v>4185564654</v>
+      </c>
+      <c r="SF2" t="n">
+        <v>4860301956</v>
+      </c>
+      <c r="SG2" t="n">
+        <v>5368018396</v>
+      </c>
+      <c r="SH2" t="n">
+        <v>5233082121</v>
+      </c>
+      <c r="SI2" t="n">
+        <v>6053799683</v>
+      </c>
+      <c r="SJ2" t="n">
+        <v>6564757473</v>
+      </c>
+      <c r="SK2" t="n">
+        <v>6113035528</v>
+      </c>
+      <c r="SL2" t="n">
+        <v>6706533717</v>
+      </c>
+      <c r="SM2" t="n">
+        <v>5779566651</v>
+      </c>
+      <c r="SN2" t="n">
+        <v>6038237945</v>
+      </c>
+      <c r="SO2" t="n">
+        <v>7378264228</v>
+      </c>
+      <c r="SP2" t="n">
+        <v>7180548529</v>
+      </c>
+      <c r="SQ2" t="n">
+        <v>6259859163</v>
+      </c>
+      <c r="SR2" t="n">
+        <v>7222038595</v>
+      </c>
+      <c r="SS2" t="n">
+        <v>7356044774</v>
+      </c>
+      <c r="ST2" t="n">
+        <v>6605090500</v>
+      </c>
+      <c r="SU2" t="n">
+        <v>6840962600</v>
+      </c>
+      <c r="SV2" t="n">
+        <v>7183958656</v>
+      </c>
+      <c r="SW2" t="n">
+        <v>7367084820</v>
+      </c>
+      <c r="SX2" t="n">
+        <v>7881277715</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Imp-Total</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>1476341312</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1474768659</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1729013255</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1754000207</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1971518433</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1853721295</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1986026408</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2158098399</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2219514437</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2321751345</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2575911451</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2724685796</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2481133182</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2640281329</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2923286343</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3043068166</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2947129058</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2664607864</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2708450217</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2518178397</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2361417575</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2566351507</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2398691353</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2742730211</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2436757507</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2402823451</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2686901614</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2630290769</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2747244157</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2528896461</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2740427146</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2610328188</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2496569032</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2607635841</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2730890764</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2845380811</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>2691722394</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2622626491</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>2992563146</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2910765044</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>2642918484</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2453845870</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2734093071</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2689212129</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>2597464133</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>2715398623</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2857013201</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>2748679988</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>2543989927</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>2282630898</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>2586177655</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>2427965036</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>2315782170</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>2469544895</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>2345169751</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2416612821</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>2544967322</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>2551913119</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>2627864029</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>2902166433</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>2580731324</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2588307479</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>2830472023</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>2552002164</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>2830817820</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>2488283864</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>2775653157</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>2974007963</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>2466773743</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>2793024279</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>2655503704</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>2785549120</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>2670558409</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>2716385467</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>2952695224</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>2955293888</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>2779373225</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>2358461000</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>2632696947</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>2467121341</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>2434282481</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>2585856829</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>2240486096</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>2291724300</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>2203498166</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>2154567575</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>1976378417</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>1948294612</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>1734934010</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>1715408102</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>1744959513</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>1450209369</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1562874173</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>1754054801</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>1524772776</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>1780765556</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>1685555813</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>1544317465</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>1728582530</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>1758296866</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>1706526592</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>1742155936</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>1915145230</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>1878906619</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>1849573301</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>2004705252</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>1965227338</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>1957919731</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>1796164853</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>1927670914</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>1963965033</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>1971996284</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>1928914302</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>2016621821</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>2097989785</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>2113415332</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>2068934053</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>2088890851</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>2020461335</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>2011295296</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>2024444396</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>1946462225</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>2544696946</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>2104684284</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>2400801378</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>2491568117</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>2472457831</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>2589486276</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>2485380823</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>2618926165</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>2646520820</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>2653143320</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>2648894855</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>2468818441</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>2823489159</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>2887652595</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>2899544419</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>2604347613</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>2822566286</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>2830271046</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>2711024287</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>3142903612</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>3015229249</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>3000466076</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>2827441144</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>2608426257</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>2821264514</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>2449686339</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>2794954173</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>2529928197</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>2778148908</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>2616963288</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>2450567764</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>2799973754</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>2697824120</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>2524975064</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>2546349846</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>2248489560</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>2532558620</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>2679644816</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>2347768380</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>2456025147</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>2548003326</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>2429167268</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>2431192336</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>2447708909</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>2419442120</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>2441069032</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>2357365563</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>2157311473</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>2510348134</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>2349806884</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>2124148119</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>2224456750</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>2207051486</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>2147567439</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>2173181801</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>2161844659</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>2265071063</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>2148203868</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>2228338869</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>2041913309</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>2378333198</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>2280632270</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>2226359910</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>2334820673</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>2213499422</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>2512787936</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>2401458244</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>2512406524</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>2521965933</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>2451811055</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>2443974354</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>2373411995</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>2715686031</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>2538872628</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>2394514680</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>2424017789</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>2448986996</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>2659839489</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>2699229046</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>3020078500</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>2931170209</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>2898972164</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>2964494500</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>2979873662</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>2992906469</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>3329344233</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>3176845485</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>2931366058</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>3325555642</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>3106848451</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>3097268158</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>3500241833</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>3298353186</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>3290323429</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>3565800750</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>3309676030</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>3740037814</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>3619788314</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>3370685627</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>3160161585</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>3442090633</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>3217064124</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>3359985804</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3540083612</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>3162284761</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3468523519</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3453338979</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>2816798387</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3350661726</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>3124009126</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>2824213082</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>3132921136</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>3251096504</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>3123044847</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3054992321</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>3015404845</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>2788936281</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>2718229949</v>
+      </c>
+      <c r="II3" t="n">
+        <v>2696581738</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>2662082497</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>3002238643</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>2986604714</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>2741014122</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>2924476179</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>2977241777</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>3039850528</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>2895532232</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>2963671008</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>3226216496</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>3152498129</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>2992192350</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>2957534578</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>3594783576</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>3236988257</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>3276435493</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>3294590458</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>3312744506</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>3598579064</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>3386040037</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>3787235915</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>3687485623</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>3813813111</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>3722447077</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>3321682161</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>4011328312</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>3668723105</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>3739635172</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>3379705890</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>3619999731</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>3520153767</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>3119888096</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>3612558913</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>3397419893</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>3301990885</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>3389439054</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>3244348010</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>3515208354</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>3573629714</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>3535013417</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>3209513349</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>3651637631</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>3428898494</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>3398715832</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>3757629587</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>3750093576</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>3773378927</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>3745323180</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>3397573362</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>3845694609</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>3780476829</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>3612061805</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>3590678652</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>3854003867</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>3551402162</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>3760791874</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>3830868789</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>3557493736</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>3835654487</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>3785937084</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>3371976820</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>4323834658</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>4031562860</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>3793552714</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>4148621116</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>4178830575</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>4212543255</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>4232570452</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>4317953930</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>4557901734</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>4261351148</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>4223237785</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>3762243525</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>4665412271</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>4556789013</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>4510471065</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>4619861311</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>4674822852</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>5117418084</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>4978514768</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>5092710633</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>5319153065</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>5428757809</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>5398061522</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>4939724360</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>5875007216</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>5518229259</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>5347092349</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>5470998164</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>5469541956</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>5948717914</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>5821682055</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>5984091333</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>5721671318</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>5849475626</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>5950876333</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>5454625525</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>5910344170</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>5730446967</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>6172301857</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>6040084531</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>6381147551</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>6291025502</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>5646800569</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>6507053382</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>6484190687</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>6567023353</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>6514634706</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>6037854109</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>6585510054</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>6430726617</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>6465660628</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>7048036399</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>7542581725</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>7365671561</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>7270331565</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>6990024853</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>5551007837</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>5152709872</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>4445761560</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>3458727747</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>4189201290</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>4145719899</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>3738560178</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>4107418232</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>4477332505</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>4344586189</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>4591756385</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>4508259352</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>4622905877</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>4869148565</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>4857806000</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>4488869743</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>5068488946</v>
+      </c>
+      <c r="NN3" t="n">
+        <v>5160502871</v>
+      </c>
+      <c r="NO3" t="n">
+        <v>4999477334</v>
+      </c>
+      <c r="NP3" t="n">
+        <v>5196697325</v>
+      </c>
+      <c r="NQ3" t="n">
+        <v>5197294412</v>
+      </c>
+      <c r="NR3" t="n">
+        <v>5146004474</v>
+      </c>
+      <c r="NS3" t="n">
+        <v>5065320646</v>
+      </c>
+      <c r="NT3" t="n">
+        <v>4909868795</v>
+      </c>
+      <c r="NU3" t="n">
+        <v>5282183737</v>
+      </c>
+      <c r="NV3" t="n">
+        <v>5392442557</v>
+      </c>
+      <c r="NW3" t="n">
+        <v>5467290509</v>
+      </c>
+      <c r="NX3" t="n">
+        <v>4952034123</v>
+      </c>
+      <c r="NY3" t="n">
+        <v>5687586976</v>
+      </c>
+      <c r="NZ3" t="n">
+        <v>5634385487</v>
+      </c>
+      <c r="OA3" t="n">
+        <v>5619981014</v>
+      </c>
+      <c r="OB3" t="n">
+        <v>5710161489</v>
+      </c>
+      <c r="OC3" t="n">
+        <v>5712022895</v>
+      </c>
+      <c r="OD3" t="n">
+        <v>6133136275</v>
+      </c>
+      <c r="OE3" t="n">
+        <v>5685046014</v>
+      </c>
+      <c r="OF3" t="n">
+        <v>5789941379</v>
+      </c>
+      <c r="OG3" t="n">
+        <v>5887410169</v>
+      </c>
+      <c r="OH3" t="n">
+        <v>5832190848</v>
+      </c>
+      <c r="OI3" t="n">
+        <v>6004339387</v>
+      </c>
+      <c r="OJ3" t="n">
+        <v>5416730067</v>
+      </c>
+      <c r="OK3" t="n">
+        <v>6285229378</v>
+      </c>
+      <c r="OL3" t="n">
+        <v>6083326364</v>
+      </c>
+      <c r="OM3" t="n">
+        <v>6144789157</v>
+      </c>
+      <c r="ON3" t="n">
+        <v>5585766131</v>
+      </c>
+      <c r="OO3" t="n">
+        <v>5840761453</v>
+      </c>
+      <c r="OP3" t="n">
+        <v>5812840641</v>
+      </c>
+      <c r="OQ3" t="n">
+        <v>5926127300</v>
+      </c>
+      <c r="OR3" t="n">
+        <v>5704206359</v>
+      </c>
+      <c r="OS3" t="n">
+        <v>5940220307</v>
+      </c>
+      <c r="OT3" t="n">
+        <v>5944295296</v>
+      </c>
+      <c r="OU3" t="n">
+        <v>6431690300</v>
+      </c>
+      <c r="OV3" t="n">
+        <v>6056595376</v>
+      </c>
+      <c r="OW3" t="n">
+        <v>6627146258</v>
+      </c>
+      <c r="OX3" t="n">
+        <v>6653135490</v>
+      </c>
+      <c r="OY3" t="n">
+        <v>6756525758</v>
+      </c>
+      <c r="OZ3" t="n">
+        <v>6239138183</v>
+      </c>
+      <c r="PA3" t="n">
+        <v>6990953628</v>
+      </c>
+      <c r="PB3" t="n">
+        <v>6753518084</v>
+      </c>
+      <c r="PC3" t="n">
+        <v>6914199468</v>
+      </c>
+      <c r="PD3" t="n">
+        <v>7203395761</v>
+      </c>
+      <c r="PE3" t="n">
+        <v>7199902106</v>
+      </c>
+      <c r="PF3" t="n">
+        <v>7416344759</v>
+      </c>
+      <c r="PG3" t="n">
+        <v>8047032407</v>
+      </c>
+      <c r="PH3" t="n">
+        <v>6605298925</v>
+      </c>
+      <c r="PI3" t="n">
+        <v>7833411545</v>
+      </c>
+      <c r="PJ3" t="n">
+        <v>6892709161</v>
+      </c>
+      <c r="PK3" t="n">
+        <v>6523232141</v>
+      </c>
+      <c r="PL3" t="n">
+        <v>6774072891</v>
+      </c>
+      <c r="PM3" t="n">
+        <v>7158457838</v>
+      </c>
+      <c r="PN3" t="n">
+        <v>6658032030</v>
+      </c>
+      <c r="PO3" t="n">
+        <v>7344068242</v>
+      </c>
+      <c r="PP3" t="n">
+        <v>7429072288</v>
+      </c>
+      <c r="PQ3" t="n">
+        <v>7086339814</v>
+      </c>
+      <c r="PR3" t="n">
+        <v>7557385451</v>
+      </c>
+      <c r="PS3" t="n">
+        <v>7301351693</v>
+      </c>
+      <c r="PT3" t="n">
+        <v>6366783655</v>
+      </c>
+      <c r="PU3" t="n">
+        <v>6703279125</v>
+      </c>
+      <c r="PV3" t="n">
+        <v>6607111017</v>
+      </c>
+      <c r="PW3" t="n">
+        <v>5953220724</v>
+      </c>
+      <c r="PX3" t="n">
+        <v>6565599276</v>
+      </c>
+      <c r="PY3" t="n">
+        <v>6924262173</v>
+      </c>
+      <c r="PZ3" t="n">
+        <v>6447725756</v>
+      </c>
+      <c r="QA3" t="n">
+        <v>6534588011</v>
+      </c>
+      <c r="QB3" t="n">
+        <v>6436503596</v>
+      </c>
+      <c r="QC3" t="n">
+        <v>6366212005</v>
+      </c>
+      <c r="QD3" t="n">
+        <v>6198898762</v>
+      </c>
+      <c r="QE3" t="n">
+        <v>6007540986</v>
+      </c>
+      <c r="QF3" t="n">
+        <v>5466799066</v>
+      </c>
+      <c r="QG3" t="n">
+        <v>5711906613</v>
+      </c>
+      <c r="QH3" t="n">
+        <v>5078292155</v>
+      </c>
+      <c r="QI3" t="n">
+        <v>5139283453</v>
+      </c>
+      <c r="QJ3" t="n">
+        <v>5338872520</v>
+      </c>
+      <c r="QK3" t="n">
+        <v>5223907982</v>
+      </c>
+      <c r="QL3" t="n">
+        <v>5351016726</v>
+      </c>
+      <c r="QM3" t="n">
+        <v>5482362445</v>
+      </c>
+      <c r="QN3" t="n">
+        <v>5389091497</v>
+      </c>
+      <c r="QO3" t="n">
+        <v>5809884502</v>
+      </c>
+      <c r="QP3" t="n">
+        <v>6043015940</v>
+      </c>
+      <c r="QQ3" t="n">
+        <v>6525955196</v>
+      </c>
+      <c r="QR3" t="n">
+        <v>5542596765</v>
+      </c>
+      <c r="QS3" t="n">
+        <v>6624525130</v>
+      </c>
+      <c r="QT3" t="n">
+        <v>5851936101</v>
+      </c>
+      <c r="QU3" t="n">
+        <v>6056015370</v>
+      </c>
+      <c r="QV3" t="n">
+        <v>6174724923</v>
+      </c>
+      <c r="QW3" t="n">
+        <v>6088017434</v>
+      </c>
+      <c r="QX3" t="n">
+        <v>6181724203</v>
+      </c>
+      <c r="QY3" t="n">
+        <v>6156869043</v>
+      </c>
+      <c r="QZ3" t="n">
+        <v>6414349975</v>
+      </c>
+      <c r="RA3" t="n">
+        <v>6814819280</v>
+      </c>
+      <c r="RB3" t="n">
+        <v>6947697687</v>
+      </c>
+      <c r="RC3" t="n">
+        <v>7049774500</v>
+      </c>
+      <c r="RD3" t="n">
+        <v>6476651298</v>
+      </c>
+      <c r="RE3" t="n">
+        <v>6597896496</v>
+      </c>
+      <c r="RF3" t="n">
+        <v>6201319041</v>
+      </c>
+      <c r="RG3" t="n">
+        <v>6904236053</v>
+      </c>
+      <c r="RH3" t="n">
+        <v>6326051061</v>
+      </c>
+      <c r="RI3" t="n">
+        <v>6975313401</v>
+      </c>
+      <c r="RJ3" t="n">
+        <v>7135886370</v>
+      </c>
+      <c r="RK3" t="n">
+        <v>6592719966</v>
+      </c>
+      <c r="RL3" t="n">
+        <v>7699726891</v>
+      </c>
+      <c r="RM3" t="n">
+        <v>7666199894</v>
+      </c>
+      <c r="RN3" t="n">
+        <v>7077529424</v>
+      </c>
+      <c r="RO3" t="n">
+        <v>6998477150</v>
+      </c>
+      <c r="RP3" t="n">
+        <v>6056654309</v>
+      </c>
+      <c r="RQ3" t="n">
+        <v>6684855302</v>
+      </c>
+      <c r="RR3" t="n">
+        <v>6605306456</v>
+      </c>
+      <c r="RS3" t="n">
+        <v>6803248902</v>
+      </c>
+      <c r="RT3" t="n">
+        <v>5996977351</v>
+      </c>
+      <c r="RU3" t="n">
+        <v>6897340870</v>
+      </c>
+      <c r="RV3" t="n">
+        <v>6290930402</v>
+      </c>
+      <c r="RW3" t="n">
+        <v>6498069405</v>
+      </c>
+      <c r="RX3" t="n">
+        <v>6565009115</v>
+      </c>
+      <c r="RY3" t="n">
+        <v>6467394442</v>
+      </c>
+      <c r="RZ3" t="n">
+        <v>6735246247</v>
+      </c>
+      <c r="SA3" t="n">
+        <v>6747750234</v>
+      </c>
+      <c r="SB3" t="n">
+        <v>5209974677</v>
+      </c>
+      <c r="SC3" t="n">
+        <v>6355178684</v>
+      </c>
+      <c r="SD3" t="n">
+        <v>6150406963</v>
+      </c>
+      <c r="SE3" t="n">
+        <v>5055394444</v>
+      </c>
+      <c r="SF3" t="n">
+        <v>5163528428</v>
+      </c>
+      <c r="SG3" t="n">
+        <v>5400759788</v>
+      </c>
+      <c r="SH3" t="n">
+        <v>5017029756</v>
+      </c>
+      <c r="SI3" t="n">
+        <v>5401466783</v>
+      </c>
+      <c r="SJ3" t="n">
+        <v>5723961785</v>
+      </c>
+      <c r="SK3" t="n">
+        <v>5787125925</v>
+      </c>
+      <c r="SL3" t="n">
+        <v>5998254122</v>
+      </c>
+      <c r="SM3" t="n">
+        <v>6106730153</v>
+      </c>
+      <c r="SN3" t="n">
+        <v>5826498023</v>
+      </c>
+      <c r="SO3" t="n">
+        <v>6720441579</v>
+      </c>
+      <c r="SP3" t="n">
+        <v>6931777099</v>
+      </c>
+      <c r="SQ3" t="n">
+        <v>6453267114</v>
+      </c>
+      <c r="SR3" t="n">
+        <v>6843104126</v>
+      </c>
+      <c r="SS3" t="n">
+        <v>6920202901</v>
+      </c>
+      <c r="ST3" t="n">
+        <v>7248231879</v>
+      </c>
+      <c r="SU3" t="n">
+        <v>7470579986</v>
+      </c>
+      <c r="SV3" t="n">
+        <v>7257891539</v>
+      </c>
+      <c r="SW3" t="n">
+        <v>8325488279</v>
+      </c>
+      <c r="SX3" t="n">
+        <v>8464605817</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/158/MOF/TRADE/COUN/World.xlsx
+++ b/data/158/MOF/TRADE/COUN/World.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SX3"/>
+  <dimension ref="A1:TJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2948,6 +2948,66 @@
           <t>2021/12</t>
         </is>
       </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>2022/01</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022/02</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>2022/03</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>2022/04</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>2022/05</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>2022/07</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>2022/08</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>2022/09</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>2022/10</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>2022/11</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4469,40 +4529,76 @@
         <v>6706533717</v>
       </c>
       <c r="SM2" t="n">
-        <v>5779566651</v>
+        <v>5779506317</v>
       </c>
       <c r="SN2" t="n">
-        <v>6038237945</v>
+        <v>6038346917</v>
       </c>
       <c r="SO2" t="n">
-        <v>7378264228</v>
+        <v>7377560808</v>
       </c>
       <c r="SP2" t="n">
-        <v>7180548529</v>
+        <v>7180252387</v>
       </c>
       <c r="SQ2" t="n">
-        <v>6259859163</v>
+        <v>6260587223</v>
       </c>
       <c r="SR2" t="n">
-        <v>7222038595</v>
+        <v>7223759368</v>
       </c>
       <c r="SS2" t="n">
-        <v>7356044774</v>
+        <v>7354679267</v>
       </c>
       <c r="ST2" t="n">
-        <v>6605090500</v>
+        <v>6604816287</v>
       </c>
       <c r="SU2" t="n">
-        <v>6840962600</v>
+        <v>6840480055</v>
       </c>
       <c r="SV2" t="n">
-        <v>7183958656</v>
+        <v>7183225328</v>
       </c>
       <c r="SW2" t="n">
-        <v>7367084820</v>
+        <v>7366999110</v>
       </c>
       <c r="SX2" t="n">
-        <v>7881277715</v>
+        <v>7881158726</v>
+      </c>
+      <c r="SY2" t="n">
+        <v>6331798617</v>
+      </c>
+      <c r="SZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6025,40 +6121,76 @@
         <v>5998254122</v>
       </c>
       <c r="SM3" t="n">
-        <v>6106730153</v>
+        <v>6147050049</v>
       </c>
       <c r="SN3" t="n">
-        <v>5826498023</v>
+        <v>5862419520</v>
       </c>
       <c r="SO3" t="n">
-        <v>6720441579</v>
+        <v>6761930594</v>
       </c>
       <c r="SP3" t="n">
-        <v>6931777099</v>
+        <v>6953491434</v>
       </c>
       <c r="SQ3" t="n">
-        <v>6453267114</v>
+        <v>6473520272</v>
       </c>
       <c r="SR3" t="n">
-        <v>6843104126</v>
+        <v>6854375659</v>
       </c>
       <c r="SS3" t="n">
-        <v>6920202901</v>
+        <v>6920182037</v>
       </c>
       <c r="ST3" t="n">
-        <v>7248231879</v>
+        <v>7258236639</v>
       </c>
       <c r="SU3" t="n">
-        <v>7470579986</v>
+        <v>7477334225</v>
       </c>
       <c r="SV3" t="n">
-        <v>7257891539</v>
+        <v>7258244205</v>
       </c>
       <c r="SW3" t="n">
-        <v>8325488279</v>
+        <v>8323868151</v>
       </c>
       <c r="SX3" t="n">
-        <v>8464605817</v>
+        <v>8470076764</v>
+      </c>
+      <c r="SY3" t="n">
+        <v>8525256822</v>
+      </c>
+      <c r="SZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/158/MOF/TRADE/COUN/World.xlsx
+++ b/data/158/MOF/TRADE/COUN/World.xlsx
@@ -4568,7 +4568,7 @@
         <v>6331798617</v>
       </c>
       <c r="SZ2" t="n">
-        <v>0</v>
+        <v>7189877688</v>
       </c>
       <c r="TA2" t="n">
         <v>0</v>
@@ -6157,10 +6157,10 @@
         <v>8470076764</v>
       </c>
       <c r="SY3" t="n">
-        <v>8525256822</v>
+        <v>8531234981</v>
       </c>
       <c r="SZ3" t="n">
-        <v>0</v>
+        <v>7859538508</v>
       </c>
       <c r="TA3" t="n">
         <v>0</v>
